--- a/fitness.xlsx
+++ b/fitness.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Private\Projects\Snake\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtmk\source\repos\Snake\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17400" windowHeight="6525" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Age</t>
   </si>
@@ -43,11 +44,23 @@
   <si>
     <t>Log10(Age)</t>
   </si>
+  <si>
+    <t>Log(age)</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Score*10</t>
+  </si>
+  <si>
+    <t>Log(age)*5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -97,7 +110,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -111,7 +124,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -384,6 +396,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C62A-4F41-BDA7-54B895A4AF0F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -622,6 +639,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C62A-4F41-BDA7-54B895A4AF0F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -768,7 +790,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1408,7 +1429,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1691,8 +1718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2849,4 +2876,540 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>LOG(B3+0.000001)</f>
+        <v>-6</v>
+      </c>
+      <c r="D3">
+        <f>C3*5</f>
+        <v>-30</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f>F3*10</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <f>B3+10</f>
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C25" si="0">LOG(B4+0.000001)</f>
+        <v>1.000000043429446</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D25" si="1">C4*5</f>
+        <v>5.00000021714723</v>
+      </c>
+      <c r="F4">
+        <f>F3+1</f>
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G25" si="2">F4*10</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <f t="shared" ref="B5:B25" si="3">B4+10</f>
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>1.3010300173787048</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>6.5051500868935239</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F25" si="4">F4+1</f>
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>1.4771212691961448</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>7.3856063459807242</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>1.6020600021853242</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>8.0103000109266205</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1.6989700130219083</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>8.4948500651095422</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>1.778151257621885</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>8.8907562881094258</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>1.8450980462184636</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>9.2254902310923175</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>1.9030899924206246</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>9.5154499621031228</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>1.954242514264819</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>9.7712125713240958</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>2.0000000043429447</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>10.000000021714722</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>2.0413926891063565</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>10.206963445531782</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>2.0791812496667457</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>10.395906248333729</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>2.1139433556475637</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>10.569716778237819</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f t="shared" si="3"/>
+        <v>140</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>2.1461280387803416</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>10.730640193901708</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>2.1760912619509778</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>10.880456309754889</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>2.2041199853702653</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>11.020599926851327</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <f t="shared" si="3"/>
+        <v>170</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>2.2304489239329475</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>11.152244619664737</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <f t="shared" si="3"/>
+        <v>180</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>2.2552725075160533</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>11.276362537580267</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <f t="shared" si="3"/>
+        <v>190</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>2.2787536032385893</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>11.393768016192947</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>2.3010299978354536</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>11.505149989177267</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>2.3222192968019884</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>11.611096484009941</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <f t="shared" si="3"/>
+        <v>220</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>2.342422682796272</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>11.71211341398136</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>